--- a/CS1501_U201514477_华龙_cpu/工程表.xlsx
+++ b/CS1501_U201514477_华龙_cpu/工程表.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$30</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="309">
   <si>
     <t>#</t>
   </si>
@@ -1246,10 +1250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALUOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1303,10 +1303,6 @@
   </si>
   <si>
     <t>zero_ext(IMM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1493,123 +1489,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OP/funct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/32H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/33H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/36H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/0H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/3H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/2H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/34H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/37H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> DH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/39H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2BH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/2AH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/2BH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/9H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/12H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/6H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
+    <t>ALUOP(4bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bltz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(rt=00000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1617,7 +1777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1642,6 +1802,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1678,7 +1850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1701,41 +1873,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2017,1497 +2259,1922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT31"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="4"/>
-    <col min="18" max="18" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="4.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="15.625" style="4"/>
+    <col min="1" max="1" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="16" customWidth="1"/>
+    <col min="18" max="18" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.875" style="2" customWidth="1"/>
+    <col min="37" max="38" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.75" style="2" customWidth="1"/>
+    <col min="40" max="40" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="15.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="1"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="18"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Y5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS5" s="8"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS6" s="8"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS7" s="8"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS8" s="8"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="W9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS9" s="8"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="W10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS10" s="8"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="W11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AS11" s="8"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="W12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS12" s="8"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="W13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS13" s="8"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF1" s="4" t="s">
+      <c r="W15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q20" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH1" s="4" t="s">
+      <c r="R20" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG21" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL1" s="4" t="s">
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AM1" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>269</v>
+      <c r="S25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP2" s="7" t="s">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="D26" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="F28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AT2" s="7" t="s">
-        <v>55</v>
+      <c r="F30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E31" s="4" t="s">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="2" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:A30">
+    <sortState ref="A4:AM31">
+      <sortCondition ref="A1:A30"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="12">
+    <mergeCell ref="T1:AM1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3524,4 +4191,1147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC23"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC11" s="2"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CS1501_U201514477_华龙_cpu/工程表.xlsx
+++ b/CS1501_U201514477_华龙_cpu/工程表.xlsx
@@ -3129,7 +3129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
@@ -5070,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CS1501_U201514477_华龙_cpu/工程表.xlsx
+++ b/CS1501_U201514477_华龙_cpu/工程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据通路!$A$1:$A$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <customWorkbookViews>
+    <customWorkbookView name="1" guid="{B0C727BD-4C66-4B6A-B0D1-A72A04DB082D}" includePrintSettings="0" includeHiddenRowCol="0" xWindow="247" yWindow="208" windowWidth="851" windowHeight="336" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="438">
   <si>
     <t>#</t>
   </si>
@@ -2137,6 +2140,146 @@
   </si>
   <si>
     <t>syscall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2229,7 +2372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2425,51 +2568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2610,11 +2708,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2661,15 +2837,6 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2695,16 +2862,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2737,13 +2901,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2758,61 +2922,64 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2841,10 +3008,55 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3129,7 +3341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
@@ -3149,7 +3361,7 @@
     <col min="14" max="14" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="25" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="22" customWidth="1"/>
     <col min="18" max="18" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.25" style="1" bestFit="1" customWidth="1"/>
@@ -3179,82 +3391,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="69" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="67" t="s">
+      <c r="R1" s="67"/>
+      <c r="S1" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="66"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="63"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="2" t="s">
         <v>125</v>
       </c>
@@ -3273,20 +3485,20 @@
       <c r="M2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N2" s="73"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="22" t="s">
         <v>251</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="S2" s="68"/>
+      <c r="S2" s="65"/>
       <c r="T2" s="1" t="s">
         <v>237</v>
       </c>
@@ -3347,7 +3559,7 @@
       <c r="AM2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="26" t="s">
         <v>402</v>
       </c>
       <c r="AO2" s="1" t="s">
@@ -3355,16 +3567,16 @@
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>199</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3394,7 +3606,7 @@
       <c r="M3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -3414,16 +3626,16 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3453,7 +3665,7 @@
       <c r="N4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="22" t="s">
         <v>259</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -3473,16 +3685,16 @@
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>198</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3512,7 +3724,7 @@
       <c r="N5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="22" t="s">
         <v>260</v>
       </c>
       <c r="S5" s="3" t="s">
@@ -3533,16 +3745,16 @@
       <c r="AS5" s="6"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>199</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3572,7 +3784,7 @@
       <c r="M6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -3593,16 +3805,16 @@
       <c r="AS6" s="6"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3632,7 +3844,7 @@
       <c r="M7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -3653,16 +3865,16 @@
       <c r="AS7" s="6"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>201</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -3692,7 +3904,7 @@
       <c r="N8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="22" t="s">
         <v>262</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -3716,16 +3928,16 @@
       <c r="AS8" s="6"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>229</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -3755,7 +3967,7 @@
       <c r="N9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="22" t="s">
         <v>261</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -3785,16 +3997,16 @@
       <c r="AS9" s="6"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>202</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3824,7 +4036,7 @@
       <c r="N10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -3854,16 +4066,16 @@
       <c r="AS10" s="6"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>230</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3893,7 +4105,7 @@
       <c r="N11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -3923,16 +4135,16 @@
       <c r="AS11" s="6"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>231</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3962,7 +4174,7 @@
       <c r="M12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -3983,16 +4195,16 @@
       <c r="AS12" s="6"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>232</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -4022,7 +4234,7 @@
       <c r="M13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -4043,16 +4255,16 @@
       <c r="AS13" s="6"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="18" t="s">
         <v>203</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4082,7 +4294,7 @@
       <c r="N14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="22" t="s">
         <v>263</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -4105,16 +4317,16 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>233</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -4144,7 +4356,7 @@
       <c r="M15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -4164,16 +4376,16 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>212</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -4206,7 +4418,7 @@
       <c r="O16" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="22" t="s">
         <v>264</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -4229,16 +4441,16 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="18" t="s">
         <v>234</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -4271,7 +4483,7 @@
       <c r="P17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="22" t="s">
         <v>265</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -4291,16 +4503,16 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="17">
         <v>16</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -4327,13 +4539,13 @@
       <c r="N18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="22" t="s">
         <v>266</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T18" s="19"/>
+      <c r="T18" s="16"/>
       <c r="AG18" s="1" t="s">
         <v>254</v>
       </c>
@@ -4342,16 +4554,16 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
+      <c r="A19" s="17">
         <v>17</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>204</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -4378,13 +4590,13 @@
       <c r="N19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="22" t="s">
         <v>267</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T19" s="19"/>
+      <c r="T19" s="16"/>
       <c r="AG19" s="1" t="s">
         <v>254</v>
       </c>
@@ -4393,16 +4605,16 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+      <c r="A20" s="17">
         <v>18</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="18" t="s">
         <v>205</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -4432,7 +4644,7 @@
       <c r="M20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -4452,16 +4664,16 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>206</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -4491,7 +4703,7 @@
       <c r="N21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="22" t="s">
         <v>268</v>
       </c>
       <c r="S21" s="3" t="s">
@@ -4511,16 +4723,16 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="18" t="s">
         <v>205</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -4550,7 +4762,7 @@
       <c r="M22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -4570,16 +4782,16 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="18" t="s">
         <v>207</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -4591,7 +4803,7 @@
       <c r="G23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="22" t="s">
         <v>269</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -4602,16 +4814,16 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="18" t="s">
         <v>208</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -4629,7 +4841,7 @@
       <c r="K24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="22" t="s">
         <v>270</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -4649,16 +4861,16 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="18" t="s">
         <v>235</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -4673,7 +4885,7 @@
       <c r="H25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -4690,16 +4902,16 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
+      <c r="A26" s="17">
         <v>24</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="18" t="s">
         <v>210</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -4726,7 +4938,7 @@
       <c r="N26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q26" s="25" t="s">
+      <c r="Q26" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -4752,16 +4964,16 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -4788,7 +5000,7 @@
       <c r="N27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q27" s="25" t="s">
+      <c r="Q27" s="22" t="s">
         <v>273</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -4808,16 +5020,16 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="20" t="s">
         <v>211</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -4847,7 +5059,7 @@
       <c r="M28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q28" s="25" t="s">
+      <c r="Q28" s="22" t="s">
         <v>252</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -4873,16 +5085,16 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="20" t="s">
         <v>206</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -4912,7 +5124,7 @@
       <c r="N29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="22" t="s">
         <v>271</v>
       </c>
       <c r="S29" s="3" t="s">
@@ -4932,16 +5144,16 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="20" t="s">
         <v>212</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -4974,7 +5186,7 @@
       <c r="O30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q30" s="25" t="s">
+      <c r="Q30" s="22" t="s">
         <v>272</v>
       </c>
       <c r="S30" s="3" t="s">
@@ -5044,6 +5256,11 @@
       <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
+  <customSheetViews>
+    <customSheetView guid="{B0C727BD-4C66-4B6A-B0D1-A72A04DB082D}" scale="70" topLeftCell="R1">
+      <selection activeCell="AN2" sqref="AN2"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="14">
     <mergeCell ref="T1:AM1"/>
     <mergeCell ref="S1:S2"/>
@@ -5068,114 +5285,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP45"/>
+  <dimension ref="A1:AP62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="7.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="41" bestFit="1" customWidth="1"/>
-    <col min="17" max="29" width="7.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.375" style="41" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" style="41" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.5" style="41" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="13.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="8.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="8.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="8.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3" style="37" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="37" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="35" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>250</v>
       </c>
@@ -5237,12 +5467,9 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="11"/>
-      <c r="AE2" s="41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    </row>
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>305</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -5326,2037 +5553,2373 @@
       <c r="AB3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AC3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="AE3" s="41" t="s">
+    </row>
+    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="O4" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="P4" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="V4" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="W4" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="X4" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y4" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z4" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA4" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB4" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC4" s="76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="37" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD6" s="37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="37" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD8" s="37" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="37" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="37" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="87" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB15" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="37" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD19" s="37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="37" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="W21" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="X21" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y21" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z21" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA21" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB21" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC21" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD21" s="37" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z22" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="37" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="37" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="37"/>
+    </row>
+    <row r="26" spans="1:42" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+    </row>
+    <row r="27" spans="1:42" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="37"/>
+    </row>
+    <row r="28" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55">
+        <v>1</v>
+      </c>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="37" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD29" s="37" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A30" s="58"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="50"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A31" s="58"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="50"/>
+    </row>
+    <row r="32" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="42"/>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="72"/>
+      <c r="AE34" s="37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B35" s="44">
+        <v>0</v>
+      </c>
+      <c r="C35" s="45">
+        <v>2</v>
+      </c>
+      <c r="D35" s="45">
+        <v>1</v>
+      </c>
+      <c r="E35" s="45">
+        <v>2</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" s="45">
+        <v>6</v>
+      </c>
+      <c r="H35" s="45">
+        <v>5</v>
+      </c>
+      <c r="I35" s="45">
+        <v>5</v>
+      </c>
+      <c r="J35" s="45">
+        <v>6</v>
+      </c>
+      <c r="K35" s="45">
+        <v>7</v>
+      </c>
+      <c r="L35" s="45">
+        <v>8</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="N35" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="O35" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="P35" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q35" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="R35" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="S35" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="T35" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="U35" s="45">
+        <v>5</v>
+      </c>
+      <c r="V35" s="45">
+        <v>5</v>
+      </c>
+      <c r="W35" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="X35" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y35" s="45">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="45">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="45">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF35" s="37" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC4" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE4" s="41" t="s">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="B36" s="48">
+        <v>2</v>
+      </c>
+      <c r="C36" s="49">
+        <v>2</v>
+      </c>
+      <c r="D36" s="49">
+        <v>2</v>
+      </c>
+      <c r="E36" s="49">
+        <v>2</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="H36" s="49">
+        <v>2</v>
+      </c>
+      <c r="I36" s="49">
+        <v>2</v>
+      </c>
+      <c r="J36" s="49">
+        <v>2</v>
+      </c>
+      <c r="K36" s="49">
+        <v>2</v>
+      </c>
+      <c r="L36" s="49">
+        <v>2</v>
+      </c>
+      <c r="M36" s="49">
+        <v>2</v>
+      </c>
+      <c r="N36" s="49">
+        <v>2</v>
+      </c>
+      <c r="O36" s="49">
+        <v>2</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="R36" s="49">
+        <v>1</v>
+      </c>
+      <c r="S36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="T36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="U36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="V36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="W36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC36" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE36" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="AF4" s="41" t="s">
+      <c r="AF36" s="37" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="33"/>
-      <c r="AE5" s="41" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" s="49">
+        <v>8</v>
+      </c>
+      <c r="C37" s="49">
+        <v>8</v>
+      </c>
+      <c r="D37" s="49">
+        <v>8</v>
+      </c>
+      <c r="E37" s="49">
+        <v>8</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" s="49">
+        <v>0</v>
+      </c>
+      <c r="H37" s="49">
+        <v>8</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" s="49">
+        <v>8</v>
+      </c>
+      <c r="K37" s="49">
+        <v>8</v>
+      </c>
+      <c r="L37" s="49">
+        <v>8</v>
+      </c>
+      <c r="M37" s="49">
+        <v>8</v>
+      </c>
+      <c r="N37" s="49">
+        <v>8</v>
+      </c>
+      <c r="O37" s="49">
+        <v>8</v>
+      </c>
+      <c r="P37" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q37" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="R37" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="S37" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="T37" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="U37" s="49">
+        <v>8</v>
+      </c>
+      <c r="V37" s="49">
+        <v>8</v>
+      </c>
+      <c r="W37" s="49">
+        <v>8</v>
+      </c>
+      <c r="X37" s="49">
+        <v>8</v>
+      </c>
+      <c r="Y37" s="49">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="49">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB37" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC37" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE37" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="AF5" s="41" t="s">
+      <c r="AF37" s="37" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="35"/>
-      <c r="AE6" s="41" t="s">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" s="49">
+        <v>0</v>
+      </c>
+      <c r="G38" s="49">
+        <v>2</v>
+      </c>
+      <c r="H38" s="49">
+        <v>0</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="N38" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="P38" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q38" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="R38" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="S38" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="T38" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="U38" s="49">
+        <v>2</v>
+      </c>
+      <c r="V38" s="49">
+        <v>2</v>
+      </c>
+      <c r="W38" s="49">
+        <v>2</v>
+      </c>
+      <c r="X38" s="49">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="49">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="49">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="49">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="49">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE38" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="AF6" s="41" t="s">
+      <c r="AF38" s="37" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="35"/>
-      <c r="AE7" s="41" t="s">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="F39" s="49">
+        <v>3</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="I39" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="M39" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="N39" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="P39" s="49">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="49">
+        <v>2</v>
+      </c>
+      <c r="R39" s="49">
+        <v>2</v>
+      </c>
+      <c r="S39" s="49">
+        <v>8</v>
+      </c>
+      <c r="T39" s="49">
+        <v>8</v>
+      </c>
+      <c r="U39" s="49">
+        <v>8</v>
+      </c>
+      <c r="V39" s="49">
+        <v>8</v>
+      </c>
+      <c r="W39" s="49">
+        <v>8</v>
+      </c>
+      <c r="X39" s="49">
+        <v>8</v>
+      </c>
+      <c r="Y39" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z39" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA39" s="49">
+        <v>8</v>
+      </c>
+      <c r="AB39" s="49">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="49">
+        <v>8</v>
+      </c>
+      <c r="AE39" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="AF7" s="41" t="s">
+      <c r="AF39" s="37" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="38"/>
-      <c r="AE8" s="41" t="s">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A40" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" s="49">
+        <v>1</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="K40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L40" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="N40" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="P40" s="49">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="R40" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="S40" s="49">
+        <v>8</v>
+      </c>
+      <c r="T40" s="49">
+        <v>4</v>
+      </c>
+      <c r="U40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="V40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="W40" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="X40" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y40" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z40" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC40" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE40" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="AF8" s="41" t="s">
+      <c r="AF40" s="37" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="V9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="W9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="X9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC9" s="33"/>
-      <c r="AE9" s="41" t="s">
+    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51">
+        <v>0</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" s="49">
+        <v>1</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="J41" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="K41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="M41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="N41" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="P41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q41" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="R41" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="S41" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="T41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="U41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="V41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="W41" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="X41" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y41" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z41" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB41" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC41" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE41" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="AF9" s="41" t="s">
+      <c r="AF41" s="37" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="35"/>
-      <c r="AE10" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF10" s="41" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB11" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC11" s="35"/>
-      <c r="AE11" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF11" s="41" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="14"/>
-      <c r="AE12" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF12" s="41" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="9"/>
-      <c r="AE13" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF13" s="41" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="11"/>
-      <c r="AE14" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF14" s="41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE15" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF15" s="41" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="38"/>
-      <c r="AE16" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="AF16" s="41" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="U17" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="V17" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="W17" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="X17" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y17" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z17" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA17" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB17" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC17" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE17" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF17" s="41" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z18" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="35"/>
-      <c r="AE18" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF18" s="41" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="R19" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="35"/>
-      <c r="AE19" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF19" s="41" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="38"/>
-      <c r="AE20" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF20" s="41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="33"/>
-      <c r="AE21" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="AF21" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="41"/>
-    </row>
-    <row r="22" spans="1:42" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="35"/>
-      <c r="AE22" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF22" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-    </row>
-    <row r="23" spans="1:42" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="35"/>
-      <c r="AE23" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF23" s="41" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-    </row>
-    <row r="24" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
-        <v>402</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59">
-        <v>1</v>
-      </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="60"/>
-      <c r="AE24" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF24" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE25" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF25" s="41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="54"/>
-      <c r="AE26" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF26" s="41" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
-      <c r="AE27" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF27" s="41" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="46"/>
-      <c r="AE28" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF28" s="41" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AE29" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF29" s="41" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>308</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="75"/>
-      <c r="AE30" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF30" s="41" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="B31" s="48">
-        <v>0</v>
-      </c>
-      <c r="C31" s="49">
-        <v>2</v>
-      </c>
-      <c r="D31" s="49">
-        <v>1</v>
-      </c>
-      <c r="E31" s="49">
-        <v>2</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31" s="49">
-        <v>6</v>
-      </c>
-      <c r="H31" s="49">
-        <v>5</v>
-      </c>
-      <c r="I31" s="49">
-        <v>5</v>
-      </c>
-      <c r="J31" s="49">
-        <v>6</v>
-      </c>
-      <c r="K31" s="49">
-        <v>7</v>
-      </c>
-      <c r="L31" s="49">
-        <v>8</v>
-      </c>
-      <c r="M31" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="N31" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="O31" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="P31" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q31" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="R31" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="S31" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="U31" s="49">
-        <v>5</v>
-      </c>
-      <c r="V31" s="49">
-        <v>5</v>
-      </c>
-      <c r="W31" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="X31" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y31" s="49">
-        <v>7</v>
-      </c>
-      <c r="Z31" s="49">
-        <v>8</v>
-      </c>
-      <c r="AA31" s="49">
-        <v>5</v>
-      </c>
-      <c r="AB31" s="49">
-        <v>5</v>
-      </c>
-      <c r="AC31" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="B32" s="52">
-        <v>2</v>
-      </c>
-      <c r="C32" s="53">
-        <v>2</v>
-      </c>
-      <c r="D32" s="53">
-        <v>2</v>
-      </c>
-      <c r="E32" s="53">
-        <v>2</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="H32" s="53">
-        <v>2</v>
-      </c>
-      <c r="I32" s="53">
-        <v>2</v>
-      </c>
-      <c r="J32" s="53">
-        <v>2</v>
-      </c>
-      <c r="K32" s="53">
-        <v>2</v>
-      </c>
-      <c r="L32" s="53">
-        <v>2</v>
-      </c>
-      <c r="M32" s="53">
-        <v>2</v>
-      </c>
-      <c r="N32" s="53">
-        <v>2</v>
-      </c>
-      <c r="O32" s="53">
-        <v>2</v>
-      </c>
-      <c r="P32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="R32" s="53">
-        <v>1</v>
-      </c>
-      <c r="S32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="T32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="U32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="V32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="W32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="X32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB32" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC32" s="53" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="53">
-        <v>8</v>
-      </c>
-      <c r="C33" s="53">
-        <v>8</v>
-      </c>
-      <c r="D33" s="53">
-        <v>8</v>
-      </c>
-      <c r="E33" s="53">
-        <v>8</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="G33" s="53">
-        <v>0</v>
-      </c>
-      <c r="H33" s="53">
-        <v>8</v>
-      </c>
-      <c r="I33" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="J33" s="53">
-        <v>8</v>
-      </c>
-      <c r="K33" s="53">
-        <v>8</v>
-      </c>
-      <c r="L33" s="53">
-        <v>8</v>
-      </c>
-      <c r="M33" s="53">
-        <v>8</v>
-      </c>
-      <c r="N33" s="53">
-        <v>8</v>
-      </c>
-      <c r="O33" s="53">
-        <v>8</v>
-      </c>
-      <c r="P33" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q33" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="R33" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="S33" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="T33" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="U33" s="53">
-        <v>8</v>
-      </c>
-      <c r="V33" s="53">
-        <v>8</v>
-      </c>
-      <c r="W33" s="53">
-        <v>8</v>
-      </c>
-      <c r="X33" s="53">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="53">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="53">
-        <v>8</v>
-      </c>
-      <c r="AA33" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB33" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC33" s="53" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="53">
-        <v>0</v>
-      </c>
-      <c r="G34" s="53">
-        <v>2</v>
-      </c>
-      <c r="H34" s="53">
-        <v>0</v>
-      </c>
-      <c r="I34" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="J34" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="K34" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="L34" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="M34" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="N34" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="O34" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="P34" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q34" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="R34" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="S34" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="T34" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="U34" s="53">
-        <v>2</v>
-      </c>
-      <c r="V34" s="53">
-        <v>2</v>
-      </c>
-      <c r="W34" s="53">
-        <v>2</v>
-      </c>
-      <c r="X34" s="53">
-        <v>2</v>
-      </c>
-      <c r="Y34" s="53">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="53">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="53">
-        <v>2</v>
-      </c>
-      <c r="AB34" s="53">
-        <v>2</v>
-      </c>
-      <c r="AC34" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
-        <v>366</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="F35" s="53">
-        <v>3</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="I35" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="J35" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="K35" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="L35" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="M35" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="N35" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="O35" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="P35" s="53">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="53">
-        <v>2</v>
-      </c>
-      <c r="R35" s="53">
-        <v>2</v>
-      </c>
-      <c r="S35" s="53">
-        <v>8</v>
-      </c>
-      <c r="T35" s="53">
-        <v>8</v>
-      </c>
-      <c r="U35" s="53">
-        <v>8</v>
-      </c>
-      <c r="V35" s="53">
-        <v>8</v>
-      </c>
-      <c r="W35" s="53">
-        <v>8</v>
-      </c>
-      <c r="X35" s="53">
-        <v>8</v>
-      </c>
-      <c r="Y35" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z35" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA35" s="53">
-        <v>8</v>
-      </c>
-      <c r="AB35" s="53">
-        <v>8</v>
-      </c>
-      <c r="AC35" s="53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="G36" s="53">
-        <v>1</v>
-      </c>
-      <c r="H36" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="I36" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="J36" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="K36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="L36" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="M36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="N36" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="O36" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="P36" s="53">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="R36" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="S36" s="53">
-        <v>8</v>
-      </c>
-      <c r="T36" s="53">
-        <v>4</v>
-      </c>
-      <c r="U36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="V36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="W36" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="X36" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y36" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z36" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC36" s="53" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55">
-        <v>0</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="G37" s="53">
-        <v>1</v>
-      </c>
-      <c r="H37" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="I37" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="J37" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="K37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="L37" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="M37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="N37" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="O37" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="P37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q37" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="R37" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="S37" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="T37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="U37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="V37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="W37" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="X37" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y37" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z37" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB37" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC37" s="53" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="B38" s="56" t="str">
-        <f>CONCATENATE(B31,B32,B33,B34,B35,B36,B37)</f>
+      <c r="B42" s="52" t="str">
+        <f>CONCATENATE(B35,B36,B37,B38,B39,B40,B41)</f>
         <v>028b000</v>
       </c>
-      <c r="C38" s="56" t="str">
-        <f t="shared" ref="C38:AC38" si="0">CONCATENATE(C31,C32,C33,C34,C35,C36,C37)</f>
+      <c r="C42" s="52" t="str">
+        <f t="shared" ref="C42:AC42" si="0">CONCATENATE(C35,C36,C37,C38,C39,C40,C41)</f>
         <v>228b000</v>
       </c>
-      <c r="D38" s="56" t="str">
+      <c r="D42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>128b000</v>
       </c>
-      <c r="E38" s="56" t="str">
+      <c r="E42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>228c000</v>
       </c>
-      <c r="F38" s="56" t="str">
+      <c r="F42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>0000300</v>
       </c>
-      <c r="G38" s="56" t="str">
+      <c r="G42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>6c02011</v>
       </c>
-      <c r="H38" s="56" t="str">
+      <c r="H42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>5280000</v>
       </c>
-      <c r="I38" s="56" t="str">
+      <c r="I42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>5280000</v>
       </c>
-      <c r="J38" s="56" t="str">
+      <c r="J42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>6280000</v>
       </c>
-      <c r="K38" s="56" t="str">
+      <c r="K42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>7280000</v>
       </c>
-      <c r="L38" s="56" t="str">
+      <c r="L42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>8280000</v>
       </c>
-      <c r="M38" s="56" t="str">
+      <c r="M42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>a280000</v>
       </c>
-      <c r="N38" s="56" t="str">
+      <c r="N42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>b280000</v>
       </c>
-      <c r="O38" s="56" t="str">
+      <c r="O42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>c280000</v>
       </c>
-      <c r="P38" s="56" t="str">
+      <c r="P42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>b000820</v>
       </c>
-      <c r="Q38" s="56" t="str">
+      <c r="Q42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>0000200</v>
       </c>
-      <c r="R38" s="56" t="str">
+      <c r="R42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>01c0200</v>
       </c>
-      <c r="S38" s="56" t="str">
+      <c r="S42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>0000880</v>
       </c>
-      <c r="T38" s="56" t="str">
+      <c r="T42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>0000840</v>
       </c>
-      <c r="U38" s="56" t="str">
+      <c r="U42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>5082800</v>
       </c>
-      <c r="V38" s="56" t="str">
+      <c r="V42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>5082800</v>
       </c>
-      <c r="W38" s="56" t="str">
+      <c r="W42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>b082800</v>
       </c>
-      <c r="X38" s="56" t="str">
+      <c r="X42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>c082800</v>
       </c>
-      <c r="Y38" s="56" t="str">
+      <c r="Y42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>7082c00</v>
       </c>
-      <c r="Z38" s="56" t="str">
+      <c r="Z42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>8082c00</v>
       </c>
-      <c r="AA38" s="56" t="str">
+      <c r="AA42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>50b2800</v>
       </c>
-      <c r="AB38" s="56" t="str">
+      <c r="AB42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>50a2800</v>
       </c>
-      <c r="AC38" s="56" t="str">
+      <c r="AC42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>5002808</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
+      <c r="AE42" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF42" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE43" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF43" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE44" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF44" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE45" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF45" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE46" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF46" s="37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A47" s="53"/>
+      <c r="AE47" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF47" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A48" s="53"/>
+      <c r="AE48" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF48" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49" s="53"/>
+      <c r="AE49" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF49" s="37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE50" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF50" s="37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE51" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF51" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE52" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF52" s="37" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE53" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF53" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE54" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF54" s="37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE55" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF55" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE56" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF56" s="37" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE57" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF57" s="37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE58" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF58" s="37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE59" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF59" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE60" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF60" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE61" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF61" s="37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE62" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF62" s="37" t="s">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <customSheetViews>
+    <customSheetView guid="{B0C727BD-4C66-4B6A-B0D1-A72A04DB082D}" scale="60" showPageBreaks="1" topLeftCell="P5">
+      <selection activeCell="X5" sqref="X5"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
-    <mergeCell ref="B30:AC30"/>
+    <mergeCell ref="B34:AC34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F33" numberStoredAsText="1"/>
+    <ignoredError sqref="F37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>